--- a/StructureDefinition-ext-R5-MedicationKnowledge.storageGuideline.xlsx
+++ b/StructureDefinition-ext-R5-MedicationKnowledge.storageGuideline.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `MedicationKnowledge.storageGuideline` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `MedicationKnowledge.storageGuideline` is mapped to FHIR R4 structure `MedicationKnowledge`, but has no target element specified.</t>
+Element `MedicationKnowledge.storageGuideline` is will have a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:MedicationKnowledge</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.storageGuideline.reference` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.reference` is mapped to FHIR R4 structure `MedicationKnowledge`, but has no target element specified.</t>
+Element `MedicationKnowledge.storageGuideline.reference` is will have a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -418,7 +418,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.storageGuideline.note` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.note` is mapped to FHIR R4 structure `MedicationKnowledge`, but has no target element specified.</t>
+Element `MedicationKnowledge.storageGuideline.note` is will have a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -450,7 +450,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.storageGuideline.stabilityDuration` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.stabilityDuration` is mapped to FHIR R4 structure `MedicationKnowledge`, but has no target element specified.</t>
+Element `MedicationKnowledge.storageGuideline.stabilityDuration` is will have a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:stabilityDuration.id</t>
@@ -482,7 +482,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.storageGuideline.environmentalSetting` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.environmentalSetting` is mapped to FHIR R4 structure `MedicationKnowledge`, but has no target element specified.</t>
+Element `MedicationKnowledge.storageGuideline.environmentalSetting` is will have a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.id</t>
@@ -507,7 +507,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.storageGuideline.environmentalSetting.type` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline.environmentalSetting` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.environmentalSetting.type` is mapped to FHIR R4 structure `MedicationKnowledge`, but has no target element specified.</t>
+Element `MedicationKnowledge.storageGuideline.environmentalSetting.type` is will have a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.extension:type.id</t>
@@ -551,7 +551,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.storageGuideline.environmentalSetting.value[x]` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline.environmentalSetting` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.environmentalSetting.value[x]` is mapped to FHIR R4 structure `MedicationKnowledge`, but has no target element specified.</t>
+Element `MedicationKnowledge.storageGuideline.environmentalSetting.value[x]` is will have a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.extension:value.id</t>

--- a/StructureDefinition-ext-R5-MedicationKnowledge.storageGuideline.xlsx
+++ b/StructureDefinition-ext-R5-MedicationKnowledge.storageGuideline.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="187">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `MedicationKnowledge.storageGuideline` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `MedicationKnowledge.storageGuideline` is will have a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+Element `MedicationKnowledge.storageGuideline` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.storageGuideline.reference` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.reference` is will have a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+Element `MedicationKnowledge.storageGuideline.reference` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -386,6 +386,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.storageGuideline.reference</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -418,7 +421,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.storageGuideline.note` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.note` is will have a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+Element `MedicationKnowledge.storageGuideline.note` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -428,6 +431,9 @@
   </si>
   <si>
     <t>Extension.extension:note.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.storageGuideline.note</t>
   </si>
   <si>
     <t>Extension.extension:note.value[x]</t>
@@ -450,7 +456,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.storageGuideline.stabilityDuration` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.stabilityDuration` is will have a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+Element `MedicationKnowledge.storageGuideline.stabilityDuration` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:stabilityDuration.id</t>
@@ -460,6 +466,9 @@
   </si>
   <si>
     <t>Extension.extension:stabilityDuration.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.storageGuideline.stabilityDuration</t>
   </si>
   <si>
     <t>Extension.extension:stabilityDuration.value[x]</t>
@@ -482,7 +491,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.storageGuideline.environmentalSetting` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.environmentalSetting` is will have a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+Element `MedicationKnowledge.storageGuideline.environmentalSetting` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.id</t>
@@ -507,7 +516,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.storageGuideline.environmentalSetting.type` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline.environmentalSetting` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.environmentalSetting.type` is will have a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+Element `MedicationKnowledge.storageGuideline.environmentalSetting.type` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.extension:type.id</t>
@@ -526,6 +535,9 @@
   </si>
   <si>
     <t>Extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.storageGuideline.environmentalSetting.type</t>
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.extension:type.value[x]</t>
@@ -551,7 +563,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.storageGuideline.environmentalSetting.value[x]` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline.environmentalSetting` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.environmentalSetting.value[x]` is will have a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+Element `MedicationKnowledge.storageGuideline.environmentalSetting.value[x]` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.extension:value.id</t>
@@ -561,6 +573,9 @@
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.extension:value.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.storageGuideline.environmentalSetting.value</t>
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.extension:value.value[x]</t>
@@ -1732,7 +1747,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1774,7 +1789,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1789,15 +1804,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1877,7 +1892,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1889,21 +1904,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1928,14 +1943,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2004,7 +2019,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2107,7 +2122,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2212,7 +2227,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2255,7 +2270,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2297,7 +2312,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2312,15 +2327,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2343,13 +2358,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2400,7 +2415,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2412,21 +2427,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2451,14 +2466,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2527,7 +2542,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2630,7 +2645,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2735,7 +2750,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2778,7 +2793,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2820,7 +2835,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2835,15 +2850,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2866,13 +2881,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2923,7 +2938,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2935,21 +2950,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2974,14 +2989,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3050,7 +3065,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3153,7 +3168,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3164,7 +3179,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -3256,13 +3271,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3287,14 +3302,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3363,10 +3378,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3466,10 +3481,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3571,10 +3586,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3614,7 +3629,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3656,7 +3671,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -3671,15 +3686,15 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3702,13 +3717,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3759,7 +3774,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3771,21 +3786,21 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3810,14 +3825,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3886,10 +3901,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3989,10 +4004,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4094,10 +4109,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4137,7 +4152,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4179,7 +4194,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -4194,15 +4209,15 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4225,13 +4240,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4282,7 +4297,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4294,15 +4309,15 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4345,7 +4360,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4387,7 +4402,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -4402,15 +4417,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4433,13 +4448,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4490,7 +4505,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4502,18 +4517,18 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4595,7 +4610,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -4610,15 +4625,15 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4641,13 +4656,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4698,7 +4713,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -4710,10 +4725,10 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-MedicationKnowledge.storageGuideline.xlsx
+++ b/StructureDefinition-ext-R5-MedicationKnowledge.storageGuideline.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-MedicationKnowledge.storageGuideline.xlsx
+++ b/StructureDefinition-ext-R5-MedicationKnowledge.storageGuideline.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="181">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>Reference to additional information about the storage guidelines.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.storageGuideline.reference` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.reference` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+    <t>Element `MedicationKnowledge.storageGuideline.reference` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -386,9 +385,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.storageGuideline.reference</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -420,8 +416,7 @@
     <t>Additional notes about the storage.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.storageGuideline.note` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.note` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+    <t>Element `MedicationKnowledge.storageGuideline.note` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -431,9 +426,6 @@
   </si>
   <si>
     <t>Extension.extension:note.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.storageGuideline.note</t>
   </si>
   <si>
     <t>Extension.extension:note.value[x]</t>
@@ -455,8 +447,7 @@
     <t>Duration that the medication remains stable if the environmentalSetting is respected.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.storageGuideline.stabilityDuration` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.stabilityDuration` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+    <t>Element `MedicationKnowledge.storageGuideline.stabilityDuration` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:stabilityDuration.id</t>
@@ -466,9 +457,6 @@
   </si>
   <si>
     <t>Extension.extension:stabilityDuration.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.storageGuideline.stabilityDuration</t>
   </si>
   <si>
     <t>Extension.extension:stabilityDuration.value[x]</t>
@@ -490,8 +478,7 @@
     <t>Describes a setting/value on the environment for the adequate storage of the medication and other substances.  Environment settings may involve temperature, humidity, or exposure to light.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.storageGuideline.environmentalSetting` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.environmentalSetting` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+    <t>Element `MedicationKnowledge.storageGuideline.environmentalSetting` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.id</t>
@@ -515,8 +502,7 @@
     <t>Identifies the category or type of setting (e.g., type of location, temperature, humidity).</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.storageGuideline.environmentalSetting.type` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline.environmentalSetting` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.environmentalSetting.type` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+    <t>Element `MedicationKnowledge.storageGuideline.environmentalSetting.type` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.extension:type.id</t>
@@ -535,9 +521,6 @@
   </si>
   <si>
     <t>Extension.extension.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.storageGuideline.environmentalSetting.type</t>
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.extension:type.value[x]</t>
@@ -562,8 +545,7 @@
     <t>Value associated to the setting. E.g., 40° – 50°F for temperature.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.storageGuideline.environmentalSetting.value[x]` is part of an existing definition because parent element `MedicationKnowledge.storageGuideline.environmentalSetting` requires a cross-version extension.
-Element `MedicationKnowledge.storageGuideline.environmentalSetting.value[x]` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+    <t>Element `MedicationKnowledge.storageGuideline.environmentalSetting.value[x]` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.extension:value.id</t>
@@ -573,9 +555,6 @@
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.extension:value.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.storageGuideline.environmentalSetting.value</t>
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.extension:value.value[x]</t>
@@ -586,9 +565,6 @@
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.storageGuideline.environmentalSetting</t>
   </si>
   <si>
     <t>Extension.extension:environmentalSetting.value[x]</t>
@@ -941,7 +917,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="190.828125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="175.828125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1747,72 +1723,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1892,33 +1868,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1943,14 +1919,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2019,7 +1995,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2122,7 +2098,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2227,7 +2203,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2270,7 +2246,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2312,30 +2288,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2358,13 +2334,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2415,33 +2391,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2466,14 +2442,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2542,7 +2518,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2645,7 +2621,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2750,7 +2726,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2793,7 +2769,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2835,30 +2811,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2881,13 +2857,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2938,33 +2914,33 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2989,14 +2965,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3065,7 +3041,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3168,7 +3144,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3179,7 +3155,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -3271,13 +3247,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3302,14 +3278,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3378,10 +3354,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3481,10 +3457,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3586,10 +3562,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3629,7 +3605,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3671,30 +3647,30 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3717,13 +3693,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3774,33 +3750,33 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3825,14 +3801,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3901,10 +3877,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4004,10 +3980,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4109,10 +4085,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4152,7 +4128,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4194,30 +4170,30 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4240,13 +4216,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4297,27 +4273,27 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4360,7 +4336,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4402,30 +4378,30 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4448,13 +4424,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4505,30 +4481,30 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4610,30 +4586,30 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4656,13 +4632,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4713,22 +4689,22 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK36" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
